--- a/indicadores/tablas/pob/430101_ascendencia.xlsx
+++ b/indicadores/tablas/pob/430101_ascendencia.xlsx
@@ -462,7 +462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1666,7 +1666,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/pob/430101_ascendencia.xlsx
+++ b/indicadores/tablas/pob/430101_ascendencia.xlsx
@@ -108,13 +108,13 @@
     <t xml:space="preserve">NOMINDICADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual tienen derecho vigente</t>
+    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual tienen cobertura vigente</t>
   </si>
   <si>
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora en la cual tienen derecho vigente.</t>
+    <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual tienen cobertura (derecho vigente según la pregunta específica de la ECH).</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>
@@ -462,7 +462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1666,7 +1666,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/pob/430101_ascendencia.xlsx
+++ b/indicadores/tablas/pob/430101_ascendencia.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Más de un prestador</t>
   </si>
   <si>
-    <t xml:space="preserve">Sin derechos</t>
+    <t xml:space="preserve">Sin cobertura</t>
   </si>
   <si>
     <t xml:space="preserve">2007</t>
@@ -108,13 +108,13 @@
     <t xml:space="preserve">NOMINDICADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual tienen cobertura vigente</t>
+    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual declaran tener cobertura vigente</t>
   </si>
   <si>
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual tienen cobertura (derecho vigente según la pregunta específica de la ECH).</t>
+    <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual declaran tener cobertura (derecho vigente según la pregunta específica de la ECH).</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>

--- a/indicadores/tablas/pob/430101_ascendencia.xlsx
+++ b/indicadores/tablas/pob/430101_ascendencia.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -30,18 +30,36 @@
     <t xml:space="preserve">Seguro Privado</t>
   </si>
   <si>
+    <t xml:space="preserve">Policial / Militar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Más de un prestador</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sin cobertura</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrodescendiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No afrodescendiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Afrodescendiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No afrodescendiente</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019</t>
   </si>
   <si>
@@ -82,9 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -135,10 +150,17 @@
 Para 2021, este indicador se calcula únicamente a partir de la implantación de modalidad panel del segundo semestre de 2021. Dados los cambios metodológicos en la formulación de las preguntas, no se incorpora a la serie el año 2020 y tampoco se considera la información del primer semestre de 2021.</t>
   </si>
   <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">cita</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE</t>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE
+</t>
   </si>
   <si>
     <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
@@ -492,604 +514,1057 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>47.7</v>
+        <v>48.2</v>
       </c>
       <c r="D2" t="n">
-        <v>39.2</v>
+        <v>44.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.93</v>
+        <v>0.49</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>29.2</v>
+        <v>29.9</v>
       </c>
       <c r="D3" t="n">
-        <v>60.1</v>
+        <v>61.3</v>
       </c>
       <c r="E3" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="F3" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>45.8</v>
+        <v>48.7</v>
       </c>
       <c r="D4" t="n">
-        <v>40.2</v>
+        <v>44.1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>28.1</v>
+        <v>30.5</v>
       </c>
       <c r="D5" t="n">
-        <v>59.3</v>
+        <v>61.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="F5" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>44.2</v>
+        <v>45.8</v>
       </c>
       <c r="D6" t="n">
-        <v>42.8</v>
+        <v>45.7</v>
       </c>
       <c r="E6" t="n">
-        <v>0.43</v>
+        <v>0.78</v>
       </c>
       <c r="F6" t="n">
-        <v>1.6</v>
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>27.4</v>
+        <v>29.5</v>
       </c>
       <c r="D7" t="n">
-        <v>59.7</v>
+        <v>61.7</v>
       </c>
       <c r="E7" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>47.7</v>
       </c>
       <c r="D8" t="n">
-        <v>43.7</v>
+        <v>39.2</v>
       </c>
       <c r="E8" t="n">
-        <v>0.35</v>
+        <v>0.93</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>5.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>29.2</v>
       </c>
       <c r="D9" t="n">
         <v>60.1</v>
       </c>
       <c r="E9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="F9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>42.8</v>
+        <v>45.8</v>
       </c>
       <c r="D10" t="n">
-        <v>42.3</v>
+        <v>40.2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>26.6</v>
+        <v>28.1</v>
       </c>
       <c r="D11" t="n">
-        <v>59.8</v>
+        <v>59.3</v>
       </c>
       <c r="E11" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>40.2</v>
+        <v>44.2</v>
       </c>
       <c r="D12" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6</v>
+        <v>27.4</v>
       </c>
       <c r="D13" t="n">
-        <v>60.3</v>
+        <v>59.7</v>
       </c>
       <c r="E13" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
+        <v>43.7</v>
       </c>
       <c r="E14" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>5.6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>25.8</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>59.9</v>
+        <v>60.1</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="F15" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" t="n">
-        <v>41.3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.3</v>
+      <c r="I16" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>59.8</v>
       </c>
       <c r="E17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>39.1</v>
+        <v>40.2</v>
       </c>
       <c r="D18" t="n">
-        <v>39.3</v>
+        <v>42.6</v>
       </c>
       <c r="E18" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>5.6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="D19" t="n">
-        <v>58.1</v>
+        <v>60.3</v>
       </c>
       <c r="E19" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="F19" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="D20" t="n">
-        <v>37.9</v>
+        <v>41</v>
       </c>
       <c r="E20" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>5.7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="D21" t="n">
-        <v>56.5</v>
+        <v>59.9</v>
       </c>
       <c r="E21" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>44.8</v>
+        <v>41.3</v>
       </c>
       <c r="D22" t="n">
-        <v>35.6</v>
+        <v>41.2</v>
       </c>
       <c r="E22" t="n">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="F22" t="n">
-        <v>3.2</v>
+        <v>6</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>30.5</v>
+        <v>26.1</v>
       </c>
       <c r="D23" t="n">
-        <v>53.9</v>
+        <v>59</v>
       </c>
       <c r="E23" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="F23" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>43.8</v>
+        <v>39.1</v>
       </c>
       <c r="D24" t="n">
-        <v>33.8</v>
+        <v>39.3</v>
       </c>
       <c r="E24" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>6.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>28.8</v>
+        <v>25.7</v>
       </c>
       <c r="D25" t="n">
-        <v>54.4</v>
+        <v>58.1</v>
       </c>
       <c r="E25" t="n">
         <v>1.9</v>
       </c>
       <c r="F25" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>40.1</v>
+        <v>41.6</v>
       </c>
       <c r="D26" t="n">
-        <v>33.2</v>
+        <v>37.9</v>
       </c>
       <c r="E26" t="n">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="F26" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
-        <v>27.9</v>
+        <v>26.9</v>
       </c>
       <c r="D27" t="n">
-        <v>51.5</v>
+        <v>56.5</v>
       </c>
       <c r="E27" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>50.4</v>
+        <v>44.8</v>
       </c>
       <c r="D28" t="n">
-        <v>21.7</v>
+        <v>35.6</v>
       </c>
       <c r="E28" t="n">
-        <v>0.92</v>
+        <v>0.49</v>
       </c>
       <c r="F28" t="n">
-        <v>4.4</v>
+        <v>6.7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>33.8</v>
+        <v>30.5</v>
       </c>
       <c r="D29" t="n">
-        <v>44.8</v>
+        <v>53.9</v>
       </c>
       <c r="E29" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>4.9</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>49.2</v>
+        <v>43.8</v>
       </c>
       <c r="D30" t="n">
-        <v>21.3</v>
+        <v>33.8</v>
       </c>
       <c r="E30" t="n">
-        <v>0.93</v>
+        <v>0.29</v>
       </c>
       <c r="F30" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C31" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>13</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="n">
         <v>35.4</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>44.2</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>1.7</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F37" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="I37" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -1109,82 +1584,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
